--- a/SI3_4/benchmark/resuls.xlsx
+++ b/SI3_4/benchmark/resuls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\IdeaProjects\SI3_3\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\Nauka\Projekty\si3\SI3_4\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2580E8C2-B9D0-40DD-8A00-0B5F9D92B814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6107BB50-03A5-48AE-B9C0-BD9B21953A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06391A13-5B1B-4378-9CEA-CCCBCADE130F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{06391A13-5B1B-4378-9CEA-CCCBCADE130F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -323,18 +323,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,7 +350,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -437,7 +435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -536,7 +534,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -704,7 +702,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -837,7 +835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205519440"/>
@@ -919,7 +917,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -951,7 +949,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877376"/>
@@ -993,7 +991,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1030,7 +1028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1044,7 +1042,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1159,7 +1157,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1228,7 +1226,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1332,7 +1329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205509872"/>
@@ -1391,7 +1388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="394229824"/>
@@ -1439,7 +1436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1453,7 +1450,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1568,7 +1565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1637,7 +1634,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1741,7 +1737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205509872"/>
@@ -1800,7 +1796,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="394229824"/>
@@ -1848,7 +1844,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1862,7 +1858,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1977,7 +1973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2071,7 +2067,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2203,7 +2199,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205509872"/>
@@ -2262,7 +2258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="394229824"/>
@@ -2310,7 +2306,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2324,7 +2320,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2409,7 +2405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2508,7 +2504,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2674,7 +2670,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2805,7 +2801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205519440"/>
@@ -2887,7 +2883,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2919,7 +2915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877376"/>
@@ -2961,7 +2957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2998,7 +2994,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3012,7 +3008,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3097,7 +3093,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3196,7 +3192,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3364,7 +3360,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3497,7 +3493,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205519440"/>
@@ -3579,7 +3575,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3611,7 +3607,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877376"/>
@@ -3653,7 +3649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3690,7 +3686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3704,7 +3700,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3789,7 +3785,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3866,7 +3862,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4038,7 +4034,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4175,7 +4171,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205519440"/>
@@ -4257,7 +4253,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4289,7 +4285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877376"/>
@@ -4331,7 +4327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4368,7 +4364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4382,7 +4378,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4467,7 +4463,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4566,7 +4562,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4740,7 +4736,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4879,7 +4875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205519440"/>
@@ -4961,7 +4957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4993,7 +4989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877376"/>
@@ -5035,7 +5031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5072,7 +5068,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5086,7 +5082,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5171,7 +5167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5270,7 +5266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5444,7 +5440,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5583,7 +5579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205519440"/>
@@ -5665,7 +5661,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5697,7 +5693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877376"/>
@@ -5739,7 +5735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5776,7 +5772,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5790,7 +5786,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5828,16 +5824,13 @@
           </a:p>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -5857,16 +5850,13 @@
           </a:p>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -5911,7 +5901,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6005,7 +5995,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6131,7 +6121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205509872"/>
@@ -6190,7 +6180,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="394229824"/>
@@ -6238,7 +6228,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6252,7 +6242,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6367,7 +6357,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6461,7 +6451,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6587,7 +6577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205509872"/>
@@ -6646,7 +6636,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="394229824"/>
@@ -6694,7 +6684,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6708,7 +6698,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6823,7 +6813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6892,7 +6882,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -6990,7 +6979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="205509872"/>
@@ -7049,7 +7038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="394229824"/>
@@ -7097,7 +7086,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13879,15 +13868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1102716</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10842</xdr:rowOff>
+      <xdr:colOff>1255116</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2634</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>17770</xdr:rowOff>
+      <xdr:colOff>155034</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13915,15 +13904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1441173</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>1408516</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>48987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>341091</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15212</xdr:rowOff>
+      <xdr:colOff>308434</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13953,14 +13942,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:colOff>79750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>854613</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>876385</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>73189</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14106,9 +14095,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -14146,7 +14135,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -14252,7 +14241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14404,39 +14393,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2152343-280E-4878-B8E5-C34DC57DEA6D}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" t="str">
         <f>G1</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" t="str">
         <f>H1</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="str">
@@ -14444,7 +14433,7 @@
         <v>1st AI depth: 1, 2nd AI depth: 1</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ref="L1:Q1" si="0">_xlfn.TEXTJOIN(", ",,B4,B5)</f>
+        <f t="shared" ref="L1:P1" si="0">_xlfn.TEXTJOIN(", ",,B4,B5)</f>
         <v>1st AI depth: 4, 2nd AI depth: 4</v>
       </c>
       <c r="M1" t="str">
@@ -14464,27 +14453,27 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:D5" si="1">G2</f>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" t="str">
         <f t="shared" si="1"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" t="str">
@@ -14508,1558 +14497,1537 @@
         <v>1st AI depth: 9, 2nd AI depth: 1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" t="str">
         <f t="shared" si="1"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" t="str">
         <f t="shared" si="1"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>1st AI depth: 6</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" t="str">
         <f t="shared" si="1"/>
         <v>1st AI depth: 6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>2nd AI depth: 6</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="1"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
         <f>_xlfn.NUMBERVALUE(E6,".")</f>
         <v>0.89600000000000002</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <f t="shared" ref="B6:D8" si="3">_xlfn.NUMBERVALUE(F6,".")</f>
         <v>3.1389999999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <f t="shared" si="3"/>
         <v>81.972999999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <f t="shared" si="3"/>
         <v>39.384</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
         <f>_xlfn.NUMBERVALUE(E7,".")</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <f t="shared" si="3"/>
         <v>3.278</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <f t="shared" si="3"/>
         <v>1.575</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <f>_xlfn.NUMBERVALUE(E8,".")</f>
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>19</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>19</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>8</v>
       </c>
-      <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+    <row r="9" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="str">
         <f>E9</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="5" t="str">
         <f t="shared" ref="B9:D13" si="4">F9</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
         <f t="shared" ref="A10:A13" si="5">E10</f>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" t="str">
         <f t="shared" si="4"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="4"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="4"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
         <f t="shared" si="5"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" t="str">
         <f t="shared" si="4"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="4"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="4"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
         <f t="shared" si="5"/>
         <v>1st AI depth: 1</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="4"/>
         <v>1st AI depth: 4</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="4"/>
         <v>1st AI depth: 6</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="4"/>
         <v>1st AI depth: 6</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
         <f t="shared" si="5"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="4"/>
         <v>2nd AI depth: 4</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="4"/>
         <v>2nd AI depth: 6</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="4"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
         <f>_xlfn.NUMBERVALUE(E14,".")</f>
         <v>0.90100000000000002</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <f t="shared" ref="B14:D16" si="6">_xlfn.NUMBERVALUE(F14,".")</f>
         <v>3.6429999999999998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <f t="shared" si="6"/>
         <v>123.86</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <f t="shared" si="6"/>
         <v>55.293999999999997</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
         <f t="shared" ref="A15:A24" si="7">_xlfn.NUMBERVALUE(E15,".")</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <f t="shared" si="6"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <f t="shared" si="6"/>
         <v>4.9539999999999997</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <f t="shared" si="6"/>
         <v>2.2109999999999999</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>16</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>17</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>10</v>
       </c>
-      <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
+    <row r="17" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="str">
         <f>E17</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="5" t="str">
         <f t="shared" ref="B17:D21" si="8">F17</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="5" t="str">
         <f t="shared" si="8"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="5" t="str">
         <f t="shared" si="8"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f t="shared" ref="A18:A21" si="9">E18</f>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="8"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="8"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="8"/>
         <v>Algorithm used: Min-Max</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
         <f t="shared" si="9"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="8"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="8"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="D19" s="1" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="8"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
         <f t="shared" si="9"/>
         <v>1st AI depth: 1</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="8"/>
         <v>1st AI depth: 4</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="8"/>
         <v>1st AI depth: 6</v>
       </c>
-      <c r="D20" s="1" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="8"/>
         <v>1st AI depth: 6</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
         <f t="shared" si="9"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="8"/>
         <v>2nd AI depth: 4</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="8"/>
         <v>2nd AI depth: 6</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="8"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
         <f t="shared" si="7"/>
         <v>0.80400000000000005</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <f t="shared" ref="B22:B24" si="10">_xlfn.NUMBERVALUE(F22,".")</f>
         <v>2.6970000000000001</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <f t="shared" ref="C22:C24" si="11">_xlfn.NUMBERVALUE(G22,".")</f>
         <v>88.096000000000004</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <f t="shared" ref="D22:D24" si="12">_xlfn.NUMBERVALUE(H22,".")</f>
         <v>36.901000000000003</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
         <f t="shared" si="7"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <f t="shared" si="10"/>
         <v>0.107</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <f t="shared" si="11"/>
         <v>3.5230000000000001</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <f t="shared" si="12"/>
         <v>1.476</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>7</v>
       </c>
-      <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
+    <row r="25" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="str">
         <f t="shared" ref="A25:E29" si="13">F25</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D25" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="13"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="str">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
         <f t="shared" si="13"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="13"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="13"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="13"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="13"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="str">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
         <f t="shared" si="13"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="B27" s="1" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="13"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="13"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="13"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="13"/>
         <v>Heuristic used: None</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="str">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
         <f t="shared" si="13"/>
         <v>1st AI depth: 1</v>
       </c>
-      <c r="B28" s="1" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="13"/>
         <v>1st AI depth: 4</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="13"/>
         <v>1st AI depth: 7</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="13"/>
         <v>1st AI depth: 9</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="13"/>
         <v>1st AI depth: 9</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="str">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
         <f t="shared" si="13"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="B29" s="1" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="13"/>
         <v>2nd AI depth: 4</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="13"/>
         <v>2nd AI depth: 7</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="13"/>
         <v>2nd AI depth: 9</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="13"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
         <f t="shared" ref="A30:E32" si="14">_xlfn.NUMBERVALUE(F30,".")</f>
         <v>0.72599999999999998</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <f t="shared" si="14"/>
         <v>0.94099999999999995</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <f t="shared" si="14"/>
         <v>18.210999999999999</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <f t="shared" si="14"/>
         <v>395.53199999999998</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <f t="shared" si="14"/>
         <v>272.13900000000001</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
         <f t="shared" si="14"/>
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <f t="shared" si="14"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <f t="shared" si="14"/>
         <v>0.72799999999999998</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <f t="shared" si="14"/>
         <v>15.821</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <f t="shared" si="14"/>
         <v>10.885</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>4</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>20</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>11</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>13</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
+    <row r="33" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="str">
         <f>F33</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B33" s="2" t="str">
         <f t="shared" ref="B33:E37" si="15">G33</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="2" t="str">
         <f t="shared" si="15"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="15"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="E33" s="3" t="str">
+      <c r="E33" s="2" t="str">
         <f t="shared" si="15"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="str">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
         <f>F34</f>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="B34" s="1" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="15"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="15"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="15"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="E34" s="1" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="15"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="str">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
         <f>F35</f>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="B35" s="1" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="15"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="15"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="15"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="15"/>
         <v>Heuristic used: Random Equal</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="str">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
         <f>F36</f>
         <v>1st AI depth: 1</v>
       </c>
-      <c r="B36" s="1" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="15"/>
         <v>1st AI depth: 4</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="15"/>
         <v>1st AI depth: 7</v>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="15"/>
         <v>1st AI depth: 9</v>
       </c>
-      <c r="E36" s="1" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="15"/>
         <v>1st AI depth: 9</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="str">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
         <f>F37</f>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="B37" s="1" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="15"/>
         <v>2nd AI depth: 4</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="15"/>
         <v>2nd AI depth: 7</v>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="15"/>
         <v>2nd AI depth: 9</v>
       </c>
-      <c r="E37" s="1" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="15"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
         <f>_xlfn.NUMBERVALUE(F38,".")</f>
         <v>0.78800000000000003</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <f t="shared" ref="B38:E40" si="16">_xlfn.NUMBERVALUE(G38,".")</f>
         <v>0.97799999999999998</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <f t="shared" si="16"/>
         <v>26.917000000000002</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <f t="shared" si="16"/>
         <v>380.80700000000002</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <f t="shared" si="16"/>
         <v>218.636</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
         <f>_xlfn.NUMBERVALUE(F39,".")</f>
         <v>3.1E-2</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <f t="shared" si="16"/>
         <v>3.9E-2</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <f t="shared" si="16"/>
         <v>1.0760000000000001</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <f t="shared" si="16"/>
         <v>15.231999999999999</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <f t="shared" si="16"/>
         <v>8.7449999999999992</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <f>_xlfn.NUMBERVALUE(F40,".")</f>
         <v>4</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>4</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>13</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="3">
         <v>13</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="3">
         <v>13</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="str">
+    <row r="41" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="str">
         <f>F41</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="B41" s="3" t="str">
+      <c r="B41" s="2" t="str">
         <f t="shared" ref="B41:E45" si="17">G41</f>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="2" t="str">
         <f t="shared" si="17"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="D41" s="3" t="str">
+      <c r="D41" s="2" t="str">
         <f t="shared" si="17"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="E41" s="3" t="str">
+      <c r="E41" s="2" t="str">
         <f t="shared" si="17"/>
         <v>Benchmark iterations: 25</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="str">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
         <f>F42</f>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="B42" s="1" t="str">
+      <c r="B42" t="str">
         <f t="shared" si="17"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="17"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="17"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="E42" s="1" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="17"/>
         <v>Algorithm used: Min-Max + Alpha Beta</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="str">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
         <f>F43</f>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="B43" s="1" t="str">
+      <c r="B43" t="str">
         <f t="shared" si="17"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="17"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="17"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="E43" s="1" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="17"/>
         <v>Heuristic used: Middle First</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="str">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
         <f>F44</f>
         <v>1st AI depth: 1</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" t="str">
         <f t="shared" si="17"/>
         <v>1st AI depth: 4</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="17"/>
         <v>1st AI depth: 7</v>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="17"/>
         <v>1st AI depth: 9</v>
       </c>
-      <c r="E44" s="1" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="17"/>
         <v>1st AI depth: 9</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="str">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
         <f>F45</f>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="B45" s="1" t="str">
+      <c r="B45" t="str">
         <f t="shared" si="17"/>
         <v>2nd AI depth: 4</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="17"/>
         <v>2nd AI depth: 7</v>
       </c>
-      <c r="D45" s="1" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="17"/>
         <v>2nd AI depth: 9</v>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="17"/>
         <v>2nd AI depth: 1</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
         <f>_xlfn.NUMBERVALUE(F46,".")</f>
         <v>0.71299999999999997</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <f t="shared" ref="B46:E48" si="18">_xlfn.NUMBERVALUE(G46,".")</f>
         <v>1.0489999999999999</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <f t="shared" si="18"/>
         <v>28.367999999999999</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <f t="shared" si="18"/>
         <v>475.04599999999999</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <f t="shared" si="18"/>
         <v>265.58699999999999</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
         <f>_xlfn.NUMBERVALUE(F47,".")</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <f t="shared" si="18"/>
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <f t="shared" si="18"/>
         <v>1.1339999999999999</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <f t="shared" si="18"/>
         <v>19.001000000000001</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <f t="shared" si="18"/>
         <v>10.622999999999999</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <f>_xlfn.NUMBERVALUE(F48,".")</f>
         <v>5</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="3">
         <v>5</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="3">
         <v>11</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="3">
         <v>16</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
